--- a/Cas pratique - Excel - Maintenance info/TP - Maintenance informatique.xlsx
+++ b/Cas pratique - Excel - Maintenance info/TP - Maintenance informatique.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoffroy\Documents\exercices\i1_dev_g1_etl\TP - Excel - Maintenance info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geoffroy\Documents\exercices\i1_dev_g1_etl\Cas pratique - Excel - Maintenance info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA68443-C3DE-4CE3-A9D1-B7336D41B847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0A9625-8046-4118-BCC3-5ED9C37CD4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B147D4D9-0BD1-422E-83F5-0D9795613BBD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B147D4D9-0BD1-422E-83F5-0D9795613BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Enoncé TP" sheetId="3" r:id="rId1"/>
@@ -37,8 +37,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>CODE MATÉRIEL</t>
   </si>
@@ -576,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -608,11 +630,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -1291,7 +1353,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,7 +1378,10 @@
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="str">
+        <f>_xlfn.CONCAT("ÉLÉMENT",A2)</f>
+        <v>ÉLÉMENT0001</v>
+      </c>
       <c r="C2" s="11">
         <v>43965</v>
       </c>
@@ -1325,7 +1390,10 @@
       <c r="A3" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="str">
+        <f t="shared" ref="B3:B29" si="0">_xlfn.CONCAT("ÉLÉMENT",A3)</f>
+        <v>ÉLÉMENT0002</v>
+      </c>
       <c r="C3" s="11">
         <v>44607</v>
       </c>
@@ -1334,7 +1402,10 @@
       <c r="A4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0003</v>
+      </c>
       <c r="C4" s="11">
         <v>43813</v>
       </c>
@@ -1343,7 +1414,10 @@
       <c r="A5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0004</v>
+      </c>
       <c r="C5" s="11">
         <v>43972</v>
       </c>
@@ -1352,7 +1426,10 @@
       <c r="A6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0005</v>
+      </c>
       <c r="C6" s="11">
         <v>43763</v>
       </c>
@@ -1361,7 +1438,10 @@
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0006</v>
+      </c>
       <c r="C7" s="11">
         <v>43940</v>
       </c>
@@ -1370,7 +1450,10 @@
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0007</v>
+      </c>
       <c r="C8" s="11">
         <v>43870</v>
       </c>
@@ -1379,7 +1462,10 @@
       <c r="A9" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0008</v>
+      </c>
       <c r="C9" s="11">
         <v>43491</v>
       </c>
@@ -1388,7 +1474,10 @@
       <c r="A10" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0009</v>
+      </c>
       <c r="C10" s="11">
         <v>43594</v>
       </c>
@@ -1397,7 +1486,10 @@
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0011</v>
+      </c>
       <c r="C11" s="11">
         <v>43540</v>
       </c>
@@ -1406,7 +1498,10 @@
       <c r="A12" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0012</v>
+      </c>
       <c r="C12" s="11">
         <v>43570</v>
       </c>
@@ -1415,7 +1510,10 @@
       <c r="A13" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0013</v>
+      </c>
       <c r="C13" s="11">
         <v>44836</v>
       </c>
@@ -1424,7 +1522,10 @@
       <c r="A14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0014</v>
+      </c>
       <c r="C14" s="11">
         <v>44675</v>
       </c>
@@ -1433,7 +1534,10 @@
       <c r="A15" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0015</v>
+      </c>
       <c r="C15" s="11">
         <v>43488</v>
       </c>
@@ -1442,7 +1546,10 @@
       <c r="A16" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0016</v>
+      </c>
       <c r="C16" s="11">
         <v>43640</v>
       </c>
@@ -1451,7 +1558,10 @@
       <c r="A17" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0017</v>
+      </c>
       <c r="C17" s="11">
         <v>43500</v>
       </c>
@@ -1460,7 +1570,10 @@
       <c r="A18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0018</v>
+      </c>
       <c r="C18" s="11">
         <v>43900</v>
       </c>
@@ -1469,7 +1582,10 @@
       <c r="A19" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0019</v>
+      </c>
       <c r="C19" s="11">
         <v>43260</v>
       </c>
@@ -1478,7 +1594,10 @@
       <c r="A20" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0020</v>
+      </c>
       <c r="C20" s="11">
         <v>43450</v>
       </c>
@@ -1487,7 +1606,10 @@
       <c r="A21" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0021</v>
+      </c>
       <c r="C21" s="11">
         <v>44702</v>
       </c>
@@ -1496,7 +1618,10 @@
       <c r="A22" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0022</v>
+      </c>
       <c r="C22" s="11">
         <v>43707</v>
       </c>
@@ -1505,7 +1630,10 @@
       <c r="A23" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0024</v>
+      </c>
       <c r="C23" s="11">
         <v>43635</v>
       </c>
@@ -1514,7 +1642,10 @@
       <c r="A24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0025</v>
+      </c>
       <c r="C24" s="11">
         <v>43962</v>
       </c>
@@ -1523,7 +1654,10 @@
       <c r="A25" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0026</v>
+      </c>
       <c r="C25" s="11">
         <v>43962</v>
       </c>
@@ -1532,7 +1666,10 @@
       <c r="A26" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT002</v>
+      </c>
       <c r="C26" s="11">
         <v>43254</v>
       </c>
@@ -1541,7 +1678,10 @@
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0028</v>
+      </c>
       <c r="C27" s="11">
         <v>44652</v>
       </c>
@@ -1550,7 +1690,10 @@
       <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0029</v>
+      </c>
       <c r="C28" s="11">
         <v>43557</v>
       </c>
@@ -1559,7 +1702,10 @@
       <c r="A29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>ÉLÉMENT0030</v>
+      </c>
       <c r="C29" s="13">
         <v>43841</v>
       </c>
@@ -1575,10 +1721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F78F6B-377F-49F8-A370-DF1CD21437B9}">
-  <dimension ref="B2:M32"/>
+  <dimension ref="B2:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="L5" sqref="L3:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,16 +1735,17 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.42578125" customWidth="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.28515625" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.28515625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,19 +1765,22 @@
         <v>90</v>
       </c>
       <c r="H2" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="27" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1640,9 +1790,43 @@
       <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E3" s="15">
+        <f>VLOOKUP(B3,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43965</v>
+      </c>
+      <c r="F3" s="15">
+        <f>IFERROR(E3,"")</f>
+        <v>43965</v>
+      </c>
+      <c r="G3" s="16">
+        <f ca="1">YEARFRAC(F3,TODAY())</f>
+        <v>2.8694444444444445</v>
+      </c>
+      <c r="H3" s="25">
+        <f ca="1">DATEDIF(F3,TODAY(),"D")</f>
+        <v>1047</v>
+      </c>
+      <c r="I3" s="16">
+        <f ca="1">IFERROR(G3,"")</f>
+        <v>2.8694444444444445</v>
+      </c>
+      <c r="J3" s="19" t="str">
+        <f ca="1">IF(I3="","",IF(I3&gt;=1,"Oui","Non"))</f>
+        <v>Oui</v>
+      </c>
+      <c r="K3" s="19" t="str" cm="1">
+        <f t="array" ref="K3">_xlfn.SWITCH(C3,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L3" s="28" t="str">
+        <f t="shared" ref="L3:L32" ca="1" si="0">IF(
+AND(
+J3="Oui",K3="Maintenance externe"
+),"Oui","Non")</f>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1652,9 +1836,40 @@
       <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E4" s="15">
+        <f>VLOOKUP(B4,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44607</v>
+      </c>
+      <c r="F4" s="15">
+        <f t="shared" ref="F4:F32" si="1">IFERROR(E4,"")</f>
+        <v>44607</v>
+      </c>
+      <c r="G4" s="16">
+        <f t="shared" ref="G4:G32" ca="1" si="2">YEARFRAC(F4,TODAY())</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" ref="H4:H31" ca="1" si="3">DATEDIF(F4,TODAY(),"D")</f>
+        <v>405</v>
+      </c>
+      <c r="I4" s="16">
+        <f t="shared" ref="I4:I32" ca="1" si="4">IFERROR(G4,"")</f>
+        <v>1.1166666666666667</v>
+      </c>
+      <c r="J4" s="19" t="str">
+        <f t="shared" ref="J4:J32" ca="1" si="5">IF(I4="","",IF(I4&gt;=1,"Oui","Non"))</f>
+        <v>Oui</v>
+      </c>
+      <c r="K4" s="19" t="str" cm="1">
+        <f t="array" ref="K4">_xlfn.SWITCH(C4,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L4" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
@@ -1664,9 +1879,40 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E5" s="15">
+        <f>VLOOKUP(B5,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43813</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="1"/>
+        <v>43813</v>
+      </c>
+      <c r="G5" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.286111111111111</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1199</v>
+      </c>
+      <c r="I5" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.286111111111111</v>
+      </c>
+      <c r="J5" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K5" s="19" t="str" cm="1">
+        <f t="array" ref="K5">_xlfn.SWITCH(C5,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L5" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1676,9 +1922,40 @@
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E6" s="15">
+        <f>VLOOKUP(B6,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43972</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="1"/>
+        <v>43972</v>
+      </c>
+      <c r="G6" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.85</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1040</v>
+      </c>
+      <c r="I6" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.85</v>
+      </c>
+      <c r="J6" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K6" s="19" t="str" cm="1">
+        <f t="array" ref="K6">_xlfn.SWITCH(C6,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L6" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
@@ -1688,9 +1965,40 @@
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E7" s="15">
+        <f>VLOOKUP(B7,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43763</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>43763</v>
+      </c>
+      <c r="G7" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.4222222222222221</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1249</v>
+      </c>
+      <c r="I7" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.4222222222222221</v>
+      </c>
+      <c r="J7" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K7" s="19" t="str" cm="1">
+        <f t="array" ref="K7">_xlfn.SWITCH(C7,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L7" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1700,9 +2008,40 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E8" s="15">
+        <f>VLOOKUP(B8,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43940</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>43940</v>
+      </c>
+      <c r="G8" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9388888888888891</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1072</v>
+      </c>
+      <c r="I8" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9388888888888891</v>
+      </c>
+      <c r="J8" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K8" s="19" t="str" cm="1">
+        <f t="array" ref="K8">_xlfn.SWITCH(C8,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L8" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1712,9 +2051,40 @@
       <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="19"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E9" s="15">
+        <f>VLOOKUP(B9,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43870</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>43870</v>
+      </c>
+      <c r="G9" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1142</v>
+      </c>
+      <c r="I9" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.1333333333333333</v>
+      </c>
+      <c r="J9" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K9" s="19" t="str" cm="1">
+        <f t="array" ref="K9">_xlfn.SWITCH(C9,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L9" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1724,9 +2094,40 @@
       <c r="D10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E10" s="15">
+        <f>VLOOKUP(B10,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43491</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>43491</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1694444444444443</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1521</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1694444444444443</v>
+      </c>
+      <c r="J10" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K10" s="19" t="str" cm="1">
+        <f t="array" ref="K10">_xlfn.SWITCH(C10,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L10" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1736,12 +2137,43 @@
       <c r="D11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="M11" s="20" t="s">
+      <c r="E11" s="15">
+        <f>VLOOKUP(B11,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43594</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>43594</v>
+      </c>
+      <c r="G11" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8833333333333333</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1418</v>
+      </c>
+      <c r="I11" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.8833333333333333</v>
+      </c>
+      <c r="J11" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K11" s="19" t="str" cm="1">
+        <f t="array" ref="K11">_xlfn.SWITCH(C11,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L11" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
@@ -1751,10 +2183,44 @@
       <c r="D12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="M12" s="21"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E12" s="15" t="e">
+        <f>VLOOKUP(B12,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F12" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" s="16" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H12" s="25" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I12" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J12" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="K12" s="19" t="str" cm="1">
+        <f t="array" ref="K12">_xlfn.SWITCH(C12,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L12" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N12" s="21" t="str" cm="1">
+        <f t="array" ref="N12:N22">_xlfn.UNIQUE(C3:C32)</f>
+        <v>chaise</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>32</v>
       </c>
@@ -1764,10 +2230,43 @@
       <c r="D13" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="M13" s="21"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="15">
+        <f>VLOOKUP(B13,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43540</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="1"/>
+        <v>43540</v>
+      </c>
+      <c r="G13" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0305555555555559</v>
+      </c>
+      <c r="H13" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1472</v>
+      </c>
+      <c r="I13" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.0305555555555559</v>
+      </c>
+      <c r="J13" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K13" s="19" t="str" cm="1">
+        <f t="array" ref="K13">_xlfn.SWITCH(C13,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L13" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+      <c r="N13" s="21" t="str">
+        <v>imprimante laser</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
@@ -1777,10 +2276,43 @@
       <c r="D14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="15">
+        <f>VLOOKUP(B14,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43570</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="1"/>
+        <v>43570</v>
+      </c>
+      <c r="G14" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.95</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1442</v>
+      </c>
+      <c r="I14" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.95</v>
+      </c>
+      <c r="J14" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K14" s="19" t="str" cm="1">
+        <f t="array" ref="K14">_xlfn.SWITCH(C14,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L14" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N14" s="21" t="str">
+        <v>scanner</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
@@ -1790,10 +2322,43 @@
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="M15" s="21"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="15">
+        <f>VLOOKUP(B15,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44836</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="1"/>
+        <v>44836</v>
+      </c>
+      <c r="G15" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="H15" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="I15" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J15" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Non</v>
+      </c>
+      <c r="K15" s="19" t="str" cm="1">
+        <f t="array" ref="K15">_xlfn.SWITCH(C15,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L15" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N15" s="21" t="str">
+        <v>cafetière</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
@@ -1803,10 +2368,43 @@
       <c r="D16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="19"/>
-      <c r="M16" s="21"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="15">
+        <f>VLOOKUP(B16,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44675</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="1"/>
+        <v>44675</v>
+      </c>
+      <c r="G16" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="H16" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>337</v>
+      </c>
+      <c r="I16" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J16" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Non</v>
+      </c>
+      <c r="K16" s="19" t="str" cm="1">
+        <f t="array" ref="K16">_xlfn.SWITCH(C16,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L16" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N16" s="21" t="str">
+        <v>table</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1816,10 +2414,43 @@
       <c r="D17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="M17" s="21"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E17" s="15">
+        <f>VLOOKUP(B17,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43488</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="1"/>
+        <v>43488</v>
+      </c>
+      <c r="G17" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.177777777777778</v>
+      </c>
+      <c r="H17" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1524</v>
+      </c>
+      <c r="I17" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.177777777777778</v>
+      </c>
+      <c r="J17" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K17" s="19" t="str" cm="1">
+        <f t="array" ref="K17">_xlfn.SWITCH(C17,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L17" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N17" s="21" t="str">
+        <v>photocopieuse</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
@@ -1829,10 +2460,43 @@
       <c r="D18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I18" s="19"/>
-      <c r="M18" s="21"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E18" s="15">
+        <f>VLOOKUP(B18,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43640</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="1"/>
+        <v>43640</v>
+      </c>
+      <c r="G18" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7583333333333333</v>
+      </c>
+      <c r="H18" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1372</v>
+      </c>
+      <c r="I18" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7583333333333333</v>
+      </c>
+      <c r="J18" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K18" s="19" t="str" cm="1">
+        <f t="array" ref="K18">_xlfn.SWITCH(C18,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L18" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+      <c r="N18" s="21" t="str">
+        <v>écran supplémentaire</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>42</v>
       </c>
@@ -1842,10 +2506,43 @@
       <c r="D19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="19"/>
-      <c r="M19" s="21"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E19" s="15">
+        <f>VLOOKUP(B19,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43500</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="1"/>
+        <v>43500</v>
+      </c>
+      <c r="G19" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.1472222222222221</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1512</v>
+      </c>
+      <c r="I19" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.1472222222222221</v>
+      </c>
+      <c r="J19" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K19" s="19" t="str" cm="1">
+        <f t="array" ref="K19">_xlfn.SWITCH(C19,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L19" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+      <c r="N19" s="21" t="str">
+        <v>tableau blanc</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
@@ -1855,10 +2552,43 @@
       <c r="D20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="19"/>
-      <c r="M20" s="21"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E20" s="15">
+        <f>VLOOKUP(B20,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43900</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="1"/>
+        <v>43900</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0472222222222221</v>
+      </c>
+      <c r="H20" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1112</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.0472222222222221</v>
+      </c>
+      <c r="J20" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K20" s="19" t="str" cm="1">
+        <f t="array" ref="K20">_xlfn.SWITCH(C20,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L20" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N20" s="21" t="str">
+        <v>papier à lettres</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>45</v>
       </c>
@@ -1868,10 +2598,43 @@
       <c r="D21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="M21" s="21"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E21" s="15">
+        <f>VLOOKUP(B21,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43260</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="1"/>
+        <v>43260</v>
+      </c>
+      <c r="G21" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1752</v>
+      </c>
+      <c r="I21" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.8</v>
+      </c>
+      <c r="J21" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K21" s="19" t="str" cm="1">
+        <f t="array" ref="K21">_xlfn.SWITCH(C21,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L21" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N21" s="21" t="str">
+        <v>chiffon à poussière</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1881,10 +2644,43 @@
       <c r="D22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="M22" s="22"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E22" s="15">
+        <f>VLOOKUP(B22,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43450</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="1"/>
+        <v>43450</v>
+      </c>
+      <c r="G22" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.2805555555555559</v>
+      </c>
+      <c r="H22" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1562</v>
+      </c>
+      <c r="I22" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.2805555555555559</v>
+      </c>
+      <c r="J22" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K22" s="19" t="str" cm="1">
+        <f t="array" ref="K22">_xlfn.SWITCH(C22,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L22" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+      <c r="N22" s="22" t="str">
+        <v>ordinateur portable</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
         <v>48</v>
       </c>
@@ -1894,9 +2690,40 @@
       <c r="D23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="19"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E23" s="15">
+        <f>VLOOKUP(B23,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44702</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="1"/>
+        <v>44702</v>
+      </c>
+      <c r="G23" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="I23" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="J23" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Non</v>
+      </c>
+      <c r="K23" s="19" t="str" cm="1">
+        <f t="array" ref="K23">_xlfn.SWITCH(C23,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L23" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1906,9 +2733,40 @@
       <c r="D24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E24" s="15">
+        <f>VLOOKUP(B24,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43707</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="1"/>
+        <v>43707</v>
+      </c>
+      <c r="G24" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1305</v>
+      </c>
+      <c r="I24" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.5750000000000002</v>
+      </c>
+      <c r="J24" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K24" s="19" t="str" cm="1">
+        <f t="array" ref="K24">_xlfn.SWITCH(C24,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L24" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1918,9 +2776,40 @@
       <c r="D25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E25" s="15" t="e">
+        <f>VLOOKUP(B25,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F25" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="16" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H25" s="25" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J25" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="K25" s="19" t="str" cm="1">
+        <f t="array" ref="K25">_xlfn.SWITCH(C25,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L25" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1930,9 +2819,40 @@
       <c r="D26" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E26" s="15">
+        <f>VLOOKUP(B26,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43635</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="1"/>
+        <v>43635</v>
+      </c>
+      <c r="G26" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7722222222222221</v>
+      </c>
+      <c r="H26" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1377</v>
+      </c>
+      <c r="I26" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.7722222222222221</v>
+      </c>
+      <c r="J26" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K26" s="19" t="str" cm="1">
+        <f t="array" ref="K26">_xlfn.SWITCH(C26,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L26" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>53</v>
       </c>
@@ -1942,9 +2862,40 @@
       <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E27" s="15">
+        <f>VLOOKUP(B27,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43962</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="1"/>
+        <v>43962</v>
+      </c>
+      <c r="G27" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8777777777777778</v>
+      </c>
+      <c r="H27" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="I27" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8777777777777778</v>
+      </c>
+      <c r="J27" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K27" s="19" t="str" cm="1">
+        <f t="array" ref="K27">_xlfn.SWITCH(C27,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L27" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="4" t="s">
         <v>54</v>
       </c>
@@ -1954,9 +2905,40 @@
       <c r="D28" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="19"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E28" s="15">
+        <f>VLOOKUP(B28,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43962</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="1"/>
+        <v>43962</v>
+      </c>
+      <c r="G28" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.8777777777777778</v>
+      </c>
+      <c r="H28" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="I28" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.8777777777777778</v>
+      </c>
+      <c r="J28" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K28" s="19" t="str" cm="1">
+        <f t="array" ref="K28">_xlfn.SWITCH(C28,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L28" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>55</v>
       </c>
@@ -1966,9 +2948,40 @@
       <c r="D29" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E29" s="15" t="e">
+        <f>VLOOKUP(B29,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F29" s="15" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="16" t="e">
+        <f t="shared" ca="1" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H29" s="25" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" s="16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v/>
+      </c>
+      <c r="J29" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="K29" s="19" t="str" cm="1">
+        <f t="array" ref="K29">_xlfn.SWITCH(C29,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L29" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
         <v>56</v>
       </c>
@@ -1978,9 +2991,40 @@
       <c r="D30" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I30" s="19"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E30" s="15">
+        <f>VLOOKUP(B30,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>44652</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="1"/>
+        <v>44652</v>
+      </c>
+      <c r="G30" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="H30" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="I30" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.98888888888888893</v>
+      </c>
+      <c r="J30" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Non</v>
+      </c>
+      <c r="K30" s="19" t="str" cm="1">
+        <f t="array" ref="K30">_xlfn.SWITCH(C30,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L30" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
         <v>57</v>
       </c>
@@ -1990,9 +3034,40 @@
       <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="E31" s="15">
+        <f>VLOOKUP(B31,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43557</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="1"/>
+        <v>43557</v>
+      </c>
+      <c r="G31" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9861111111111112</v>
+      </c>
+      <c r="H31" s="25">
+        <f t="shared" ca="1" si="3"/>
+        <v>1455</v>
+      </c>
+      <c r="I31" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.9861111111111112</v>
+      </c>
+      <c r="J31" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K31" s="19" t="str" cm="1">
+        <f t="array" ref="K31">_xlfn.SWITCH(C31,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>Maintenance externe</v>
+      </c>
+      <c r="L31" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Oui</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2002,15 +3077,51 @@
       <c r="D32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I32" s="19"/>
+      <c r="E32" s="15">
+        <f>VLOOKUP(B32,'Date délivrance'!$B$2:$C$29,2,FALSE)</f>
+        <v>43841</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="1"/>
+        <v>43841</v>
+      </c>
+      <c r="G32" s="16">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2111111111111112</v>
+      </c>
+      <c r="H32" s="25">
+        <f ca="1">DATEDIF(F32,TODAY(),"D")</f>
+        <v>1171</v>
+      </c>
+      <c r="I32" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>3.2111111111111112</v>
+      </c>
+      <c r="J32" s="19" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>Oui</v>
+      </c>
+      <c r="K32" s="19" t="str" cm="1">
+        <f t="array" ref="K32">_xlfn.SWITCH(C32,"imprimante laser","Maintenance externe","scanner","Maintenance externe","photocopieuse","Maintenance externe","écran supplémentaire","Maintenance externe","ordinateur portable","Maintenance externe","maintenance interne")</f>
+        <v>maintenance interne</v>
+      </c>
+      <c r="L32" s="28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Non</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K3:K32">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="L3:L32">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Oui"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"Non"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J32">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2024,6 +3135,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D3B40254CCAD4F4DB9C9C68E413794DF" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="2aeafd693a26295ca1608391418ffef4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c191e861-ca77-4be2-9cd3-792aee8b8b5e" xmlns:ns4="cce717fc-1ede-428e-a6c2-005dbc01d41f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a01f5c371c90485a4615d2aeeb347d07" ns3:_="" ns4:_="">
     <xsd:import namespace="c191e861-ca77-4be2-9cd3-792aee8b8b5e"/>
@@ -2240,15 +3360,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCBB88AC-DE44-48DE-B3AA-300E1D7EEC9E}">
   <ds:schemaRefs>
@@ -2259,6 +3370,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD83082-98BA-41FF-B11C-BF66B195BBA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64425965-C52D-4641-8666-B5B7818B47C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2275,12 +3394,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD83082-98BA-41FF-B11C-BF66B195BBA6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>